--- a/biology/Médecine/1265_en_santé_et_médecine/1265_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1265_en_santé_et_médecine/1265_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1265_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1265_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1265 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1265_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1265_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation d'une maison-Dieu à Briis, dans l'actuel département de l'Essonne, par Jean de Briis, seigneur du lieu, et par Avelyne, sa femme[1],[2].
-Première mention de l'hôpital du Saint-Esprit de Stralsund, en Poméranie, destiné aux vieillards, aux malades et aux personnes dans le besoin, et premier du genre dans cette ville[3],[4].
-Près de Monteriggioni en Toscane, le pape Clément IV et l'évêque de Volterra inaugurent un hôpital que la fondatrice, Sapia, veuve de Ghinibaldo di Saracino da Strove, a voulu adjoindre à son château de Castiglionalto (it) et qu'elle destine à l'accueil des passants[5].
-Le pape Clément IV ordonne à tout lépreux, sous peine d'excommunication et quelle que soit sa position sociale, de se retirer dans un hôpital des chevaliers de Saint-Lazare en remettant tous ses biens entre leurs mains[6].
-1264-1265 : fondation de l'hôtel-Dieu de Saint-Paul[7] en Artois, par Guy III, comte de Châtillon, et sa femme, Mathilde, fille d'Henri II, duc de Brabant[8],[9].
-Vers 1265 : fondation probable de la maison-Dieu d'Eymoutiers, dans le diocèse de Limoges[10].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation d'une maison-Dieu à Briis, dans l'actuel département de l'Essonne, par Jean de Briis, seigneur du lieu, et par Avelyne, sa femme,.
+Première mention de l'hôpital du Saint-Esprit de Stralsund, en Poméranie, destiné aux vieillards, aux malades et aux personnes dans le besoin, et premier du genre dans cette ville,.
+Près de Monteriggioni en Toscane, le pape Clément IV et l'évêque de Volterra inaugurent un hôpital que la fondatrice, Sapia, veuve de Ghinibaldo di Saracino da Strove, a voulu adjoindre à son château de Castiglionalto (it) et qu'elle destine à l'accueil des passants.
+Le pape Clément IV ordonne à tout lépreux, sous peine d'excommunication et quelle que soit sa position sociale, de se retirer dans un hôpital des chevaliers de Saint-Lazare en remettant tous ses biens entre leurs mains.
+1264-1265 : fondation de l'hôtel-Dieu de Saint-Paul en Artois, par Guy III, comte de Châtillon, et sa femme, Mathilde, fille d'Henri II, duc de Brabant,.
+Vers 1265 : fondation probable de la maison-Dieu d'Eymoutiers, dans le diocèse de Limoges.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1265_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1265_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Théodoric rédige sa Chirurgia[11].
-Vers 1265 : Salomon ben Joseph ibn Ayub, surtout connu comme traducteur d'Avicenne, achève un traité sur les hémorroïdes[12].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Théodoric rédige sa Chirurgia.
+Vers 1265 : Salomon ben Joseph ibn Ayub, surtout connu comme traducteur d'Avicenne, achève un traité sur les hémorroïdes.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1265_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1265_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Stéphanie de Lyon, femme médecin (« medica ») française, fille d'Étienne de Montaneis, lui-même médecin à Lyon[13].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Stéphanie de Lyon, femme médecin (« medica ») française, fille d'Étienne de Montaneis, lui-même médecin à Lyon.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1265_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1265_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +625,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>14 mai : Gilles de Santarem (né vers 1185), médecin et moine portugais, traducteur de Rhazès et de Jean Mésué, commentateur du Viatique d'Ibn al-Jazzar[14].
-Abraham ben Sahal (né à Cordoue en Andalousie à une date inconnue), médecin, astronome, philosophe et poète juif[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>14 mai : Gilles de Santarem (né vers 1185), médecin et moine portugais, traducteur de Rhazès et de Jean Mésué, commentateur du Viatique d'Ibn al-Jazzar.
+Abraham ben Sahal (né à Cordoue en Andalousie à une date inconnue), médecin, astronome, philosophe et poète juif.</t>
         </is>
       </c>
     </row>
